--- a/Test sceanrios for Door.xlsx
+++ b/Test sceanrios for Door.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Bhakti Testing 2025\Test Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA8FEAC-D5D2-45AB-AAC9-D37BCFD401CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5E407D-9B68-4F88-B0FA-D944DE8F3C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Sr. no</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Check the hinges of the door are properly fit with wall</t>
+  </si>
+  <si>
+    <t>Verify door when hinges are broken</t>
+  </si>
+  <si>
+    <t>Verify door is opening easily in rainy season</t>
+  </si>
+  <si>
+    <t>Verify if the door lock in rainy season</t>
+  </si>
+  <si>
+    <t>Verify door is closing when hinges are broken</t>
   </si>
 </sst>
 </file>
@@ -463,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="109" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -570,6 +582,9 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -578,6 +593,9 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -586,6 +604,9 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -593,6 +614,9 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">

--- a/Test sceanrios for Door.xlsx
+++ b/Test sceanrios for Door.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Bhakti Testing 2025\Test Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5E407D-9B68-4F88-B0FA-D944DE8F3C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952EF9F9-548E-4A3D-BF57-C99F0D6BCDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Door" sheetId="1" r:id="rId1"/>
+    <sheet name="Whatsapp chat messages" sheetId="2" r:id="rId2"/>
+    <sheet name="Pen Stand" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>Sr. no</t>
   </si>
@@ -42,9 +44,6 @@
     <t>Positive Scenarios</t>
   </si>
   <si>
-    <t>Negetive Scenarios</t>
-  </si>
-  <si>
     <t>Verify if the door is single door or double door</t>
   </si>
   <si>
@@ -75,9 +74,6 @@
     <t>Verify if it is readymade door or man made(Carpenter)</t>
   </si>
   <si>
-    <t>Verify if brand name is availabe on the door if it is readymade door</t>
-  </si>
-  <si>
     <t>Verify the material of the door is wood or plastic or glass</t>
   </si>
   <si>
@@ -142,6 +138,174 @@
   </si>
   <si>
     <t>Verify door is closing when hinges are broken</t>
+  </si>
+  <si>
+    <t>Negative Scenarios</t>
+  </si>
+  <si>
+    <t>Verify if brand name is available on the door if it is readymade door</t>
+  </si>
+  <si>
+    <t>Positive Scenario</t>
+  </si>
+  <si>
+    <t>Negative Scenario</t>
+  </si>
+  <si>
+    <t>Verify if whatsapp is installed in the system</t>
+  </si>
+  <si>
+    <t>Verify whatsapp icon is showing proper image on the screen</t>
+  </si>
+  <si>
+    <t>Verify when whatsapp is not installed in the system</t>
+  </si>
+  <si>
+    <t>Verify when click on whatsapp icon, other than chats page is opening</t>
+  </si>
+  <si>
+    <t>Verify unread messages with number on the right side of the name of the contact</t>
+  </si>
+  <si>
+    <t>verify unread message does not show number of messages</t>
+  </si>
+  <si>
+    <t>Verify the icon on the home screen displays proper number of unread message</t>
+  </si>
+  <si>
+    <t>Verify the icon on the home screen is not display proper number of unread message</t>
+  </si>
+  <si>
+    <t>Verify whatsapp icon is displaying green in color</t>
+  </si>
+  <si>
+    <t>Verify whatsapp icon is displaying in other than green color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when click on whatsapp icon, it should open chats page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the number of messages on the icon is not  decrease when messages open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the number of messages on the icon gets descrease when messages open </t>
+  </si>
+  <si>
+    <t>Verify when whatsapp icon does not show properly</t>
+  </si>
+  <si>
+    <t>Verify if it asks for privacy password when opening whatsapp when it is not locked</t>
+  </si>
+  <si>
+    <t>Verify if it asks for privacy password when opening whatsapp if it is locked</t>
+  </si>
+  <si>
+    <t>Verify when valid password is entered to open whatsapp</t>
+  </si>
+  <si>
+    <t>Verify when invalid password is entered open whatsapp</t>
+  </si>
+  <si>
+    <t>Verify if whatapp is opening with invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify it shows forgot password button when invalid password is entered </t>
+  </si>
+  <si>
+    <t>Verify forogot password button when enterd valid password</t>
+  </si>
+  <si>
+    <t>Verify whatsapp opens chat for perticular contact name when click on it with valid profile picture</t>
+  </si>
+  <si>
+    <t>verify whatsapp opens chat for selected contact name with different profile picture</t>
+  </si>
+  <si>
+    <t>Verify past chat is displaying opening a contact</t>
+  </si>
+  <si>
+    <t>verify past chat is not displaying when opening chat for selected contact</t>
+  </si>
+  <si>
+    <t>Verify if cursor is displaying in write message text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify cursor position is not displaying when opening any contact name </t>
+  </si>
+  <si>
+    <t>Verify back button beside profile picture but does not allow to go back to home page of whatsapp</t>
+  </si>
+  <si>
+    <t>Verify back button is  displaying beside profile picture</t>
+  </si>
+  <si>
+    <t>Verify screen shows no message when selecting any contact name for the first time</t>
+  </si>
+  <si>
+    <t>Verify when click on write message text box it opens keypad  with alphabets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when click on write message text box it does not open keypad with alphabets </t>
+  </si>
+  <si>
+    <t>Verify when click on write message text box it opens keypad with alphabets and it shows attachment, payment, camera symbol along with audio message option</t>
+  </si>
+  <si>
+    <t>Verify when click on write message text box it opens keypad with alphabets and it shows attachment, payment, camera symbol but does not show audio message option</t>
+  </si>
+  <si>
+    <t>Verify when click on write message text box it opens keypad with alphabets and it does not shows attachment, payment, camera symbol but does not show audio message option</t>
+  </si>
+  <si>
+    <t>Verify emogies option is available beside messages text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify emogies option is available but soes not allow to add emogies in the message </t>
+  </si>
+  <si>
+    <t>Verify send button is enable when writes in the messages text box</t>
+  </si>
+  <si>
+    <t>Verify when nothing is written in the messages  text box</t>
+  </si>
+  <si>
+    <t>Verify when click on send button but message still displays in the box</t>
+  </si>
+  <si>
+    <t>Verify send button should send the message and should not display in the messages box</t>
+  </si>
+  <si>
+    <t>Verify message should display  with single tick mark and time on the screen when message is sent</t>
+  </si>
+  <si>
+    <t>Verify message should display  with double tick mark and time on the screen when message is delievered to the person</t>
+  </si>
+  <si>
+    <t>Verify message should display  with double tick mark in blue color and time on the screen when message is read by the person</t>
+  </si>
+  <si>
+    <t>Verify message is still displaying single tick mark even if deleivered to the person</t>
+  </si>
+  <si>
+    <t>Verify tick color is changed when read by the person</t>
+  </si>
+  <si>
+    <t>Verify if user is able to attach a document, picture, location to the message</t>
+  </si>
+  <si>
+    <t>verify when user is trying to attach unsupported file to the message</t>
+  </si>
+  <si>
+    <t>verify when payment is redirecting to different bank</t>
+  </si>
+  <si>
+    <t>Verify audio option is working properly</t>
+  </si>
+  <si>
+    <t>Verify group chat  is delievering a message to all the members</t>
+  </si>
+  <si>
+    <t>Positive scenario</t>
   </si>
 </sst>
 </file>
@@ -475,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="109" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A13" zoomScale="109" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -503,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -514,10 +678,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -525,10 +689,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -536,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -547,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -558,10 +722,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -569,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -580,10 +744,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -591,10 +755,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -602,10 +766,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -613,10 +777,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -624,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -632,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -640,7 +804,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -648,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -656,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -664,7 +828,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -672,7 +836,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -680,7 +844,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -688,7 +852,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -696,7 +860,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -704,7 +868,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -751,4 +915,550 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B83EA0-1CF9-4BE6-B29F-0F3660BD541B}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3E3F6F-79B3-476E-BD01-A57618B1BBCD}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>